--- a/data/raw/FORESTRYdata/2025/林業署獼猴調查樣區列表.xlsx
+++ b/data/raw/FORESTRYdata/2025/林業署獼猴調查樣區列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\test\Macaca-population-trend\data\raw\FORESTRYdata\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DDFCDB-B63A-4320-A965-FB80DDA73D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEC79D6-4897-4FA6-9717-F97B79CE2ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12840" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="451">
   <si>
     <t>宜蘭</t>
   </si>
@@ -1401,10 +1401,6 @@
   </si>
   <si>
     <t>MA-G30-16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bird</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6267,9 +6263,6 @@
       <c r="C320" t="s">
         <v>446</v>
       </c>
-      <c r="D320" t="s">
-        <v>435</v>
-      </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
@@ -6632,9 +6625,6 @@
       </c>
       <c r="C347" t="s">
         <v>450</v>
-      </c>
-      <c r="D347" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="348" spans="1:4">
